--- a/test_program/test_program_cycles.xlsx
+++ b/test_program/test_program_cycles.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>main:</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -123,6 +123,18 @@
   </si>
   <si>
     <t>Fibonacci RV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -130,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -153,8 +165,24 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -191,6 +219,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -260,7 +294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -298,6 +332,24 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -580,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -593,18 +645,18 @@
     <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="12"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>21</v>
@@ -625,78 +677,168 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9"/>
       <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="K9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9"/>
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="J10" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="9"/>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="9"/>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="9"/>
       <c r="B15" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="2" t="s">
         <v>13</v>
